--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC11_Verify_CheckOut_SingleShipping.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC11_Verify_CheckOut_SingleShipping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823B7DD-47D0-4288-9878-9DF879968FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20FC5A-48E6-4E81-832C-93B04EA661D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -808,7 +808,7 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1433,12 +1433,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1639,15 +1636,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1672,10 +1673,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC11_Verify_CheckOut_SingleShipping.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC11_Verify_CheckOut_SingleShipping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20FC5A-48E6-4E81-832C-93B04EA661D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B233F7D-8413-4382-87AA-4B30D8D36843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
   <si>
     <t>TestCase</t>
   </si>
@@ -184,21 +184,12 @@
     <t>TC11_Verify_CheckOut_SingleShipping</t>
   </si>
   <si>
-    <t>Dr. Scholl's Giorgie Memory Foam Flats</t>
-  </si>
-  <si>
     <t>PDP_ShipTO</t>
   </si>
   <si>
     <t>PDP_StorePickUP</t>
   </si>
   <si>
-    <t>PDPSize_CheckoutSingleShip</t>
-  </si>
-  <si>
-    <t>PDP_SaveContinue</t>
-  </si>
-  <si>
     <t>ProccedTOCheckout</t>
   </si>
   <si>
@@ -239,6 +230,12 @@
   </si>
   <si>
     <t>LogOut_button</t>
+  </si>
+  <si>
+    <t>PDPShipAdd</t>
+  </si>
+  <si>
+    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -659,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -834,7 +831,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -846,50 +843,48 @@
         <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
@@ -898,24 +893,20 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
@@ -924,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -933,25 +924,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
@@ -959,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -969,7 +962,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -977,45 +970,51 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>19</v>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
+      <c r="B27" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>61</v>
@@ -1023,12 +1022,14 @@
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>13</v>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>62</v>
@@ -1042,115 +1043,70 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
-      <c r="B31" s="5" t="s">
-        <v>18</v>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="5" t="s">
-        <v>18</v>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
+      <c r="B33" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1165,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1259,8 +1215,8 @@
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
+      <c r="B11" s="3">
+        <v>8014146</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1361,7 +1317,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1369,7 +1325,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1377,7 +1333,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3">
         <v>123</v>
@@ -1385,23 +1341,23 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1409,7 +1365,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1417,7 +1373,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1433,12 +1389,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1635,7 +1585,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1644,16 +1594,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1672,10 +1619,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC11_Verify_CheckOut_SingleShipping.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC11_Verify_CheckOut_SingleShipping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B233F7D-8413-4382-87AA-4B30D8D36843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20FC5A-48E6-4E81-832C-93B04EA661D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>TestCase</t>
   </si>
@@ -184,12 +184,21 @@
     <t>TC11_Verify_CheckOut_SingleShipping</t>
   </si>
   <si>
+    <t>Dr. Scholl's Giorgie Memory Foam Flats</t>
+  </si>
+  <si>
     <t>PDP_ShipTO</t>
   </si>
   <si>
     <t>PDP_StorePickUP</t>
   </si>
   <si>
+    <t>PDPSize_CheckoutSingleShip</t>
+  </si>
+  <si>
+    <t>PDP_SaveContinue</t>
+  </si>
+  <si>
     <t>ProccedTOCheckout</t>
   </si>
   <si>
@@ -230,12 +239,6 @@
   </si>
   <si>
     <t>LogOut_button</t>
-  </si>
-  <si>
-    <t>PDPShipAdd</t>
-  </si>
-  <si>
-    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -831,7 +834,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -843,48 +846,50 @@
         <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
@@ -893,20 +898,24 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
@@ -915,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -924,27 +933,25 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
@@ -952,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -962,7 +969,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -970,51 +977,45 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>13</v>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
-        <v>18</v>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>61</v>
@@ -1022,14 +1023,12 @@
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>62</v>
@@ -1043,70 +1042,115 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
-        <v>18</v>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
+      <c r="B30" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
+      <c r="B31" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
+      <c r="B32" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1121,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1215,8 +1259,8 @@
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3">
-        <v>8014146</v>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1317,7 +1361,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1325,7 +1369,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1333,7 +1377,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>123</v>
@@ -1341,23 +1385,23 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1365,7 +1409,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1373,7 +1417,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1389,6 +1433,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1585,7 +1635,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1594,13 +1644,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1619,19 +1672,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>